--- a/AAA - Revision Asignacion de Salida (version Año Abril-Diciembre 2024).xlsx
+++ b/AAA - Revision Asignacion de Salida (version Año Abril-Diciembre 2024).xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,14 +537,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fernandez</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>40940</v>
+        <v>41456</v>
       </c>
       <c r="C2" t="n">
-        <v>12.04383561643836</v>
+        <v>12.09315068493151</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>27779</v>
+        <v>32</v>
       </c>
       <c r="F2" t="n">
-        <v>5.733927907840951</v>
+        <v>6.215593413784655</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8833922261484137</v>
+        <v>2.347299343765784</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -573,41 +573,41 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.333333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>-0</v>
+        <v>4.879012345679012</v>
       </c>
       <c r="P2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.003684312584836145</v>
+        <v>0.3336076817558298</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
         <v>41456</v>
       </c>
       <c r="C3" t="n">
-        <v>10.63013698630137</v>
+        <v>12.09315068493151</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -615,16 +615,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" t="n">
-        <v>5.881428122230798</v>
+        <v>6.215593413784655</v>
       </c>
       <c r="G3" t="n">
-        <v>2.347299343765784</v>
+        <v>2.179034157832754</v>
       </c>
       <c r="H3" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>4.879012345679012</v>
+        <v>4.360655737704918</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -657,20 +657,20 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3336076817558298</v>
+        <v>0.3322404371584699</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Iñiguez</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>41456</v>
+        <v>41640</v>
       </c>
       <c r="C4" t="n">
-        <v>10.63013698630137</v>
+        <v>11.58904109589041</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -678,16 +678,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F4" t="n">
-        <v>5.881428122230798</v>
+        <v>6.272659886921544</v>
       </c>
       <c r="G4" t="n">
-        <v>2.179034157832754</v>
+        <v>2.305233047282527</v>
       </c>
       <c r="H4" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>4.360655737704918</v>
+        <v>4.639357429718875</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -720,20 +720,20 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3322404371584699</v>
+        <v>0.3255689424364123</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Iñiguez</t>
+          <t>Breinbauer</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
         <v>41640</v>
       </c>
       <c r="C5" t="n">
-        <v>10.12602739726027</v>
+        <v>11.58904109589041</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" t="n">
-        <v>5.934025097904697</v>
+        <v>6.272659886921544</v>
       </c>
       <c r="G5" t="n">
         <v>2.305233047282527</v>
@@ -771,7 +771,7 @@
         <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>4.639357429718875</v>
+        <v>4.676923076923077</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -783,37 +783,37 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3255689424364123</v>
+        <v>0.3282051282051282</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>41640</v>
+        <v>41852</v>
       </c>
       <c r="C6" t="n">
-        <v>10.12602739726027</v>
+        <v>11.00821917808219</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Yoda-Sin Noches</t>
+          <t>Knight-Tardes</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" t="n">
-        <v>5.934025097904697</v>
+        <v>6.338410388579262</v>
       </c>
       <c r="G6" t="n">
-        <v>2.305233047282527</v>
+        <v>7.916876998149114</v>
       </c>
       <c r="H6" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L6" t="n">
-        <v>2.666666666666667</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
@@ -834,7 +834,7 @@
         <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>4.676923076923077</v>
+        <v>4.32520325203252</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -843,23 +843,23 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.977235772357723</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3282051282051282</v>
+        <v>0.4943089430894309</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
         <v>41852</v>
       </c>
       <c r="C7" t="n">
-        <v>9.545205479452054</v>
+        <v>11.00821917808219</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -867,25 +867,25 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>5.994625961181145</v>
+        <v>6.338410388579262</v>
       </c>
       <c r="G7" t="n">
-        <v>7.580346626283051</v>
+        <v>8.211341073531914</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>35</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L7" t="n">
         <v>4</v>
@@ -897,32 +897,32 @@
         <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>4.32520325203252</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>4.273092369477911</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1.853658536585366</v>
+        <v>1.953413654618474</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4943089430894309</v>
+        <v>0.4883534136546185</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
         <v>41852</v>
       </c>
       <c r="C8" t="n">
-        <v>9.545205479452054</v>
+        <v>11.00821917808219</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -930,13 +930,13 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F8" t="n">
-        <v>5.994625961181145</v>
+        <v>6.338410388579262</v>
       </c>
       <c r="G8" t="n">
-        <v>7.874810701665854</v>
+        <v>8.211341073531914</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L8" t="n">
         <v>4</v>
@@ -963,29 +963,29 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>4.273092369477911</v>
+        <v>4.32520325203252</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1.831325301204819</v>
+        <v>1.977235772357723</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4883534136546185</v>
+        <v>0.4943089430894309</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>41852</v>
+        <v>42736</v>
       </c>
       <c r="C9" t="n">
-        <v>9.545205479452054</v>
+        <v>8.586301369863014</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         <v>29</v>
       </c>
       <c r="F9" t="n">
-        <v>5.994625961181145</v>
+        <v>6.61257757473692</v>
       </c>
       <c r="G9" t="n">
-        <v>8.211341073531914</v>
+        <v>8.362779740871641</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>4.32520325203252</v>
+        <v>4.695934959349593</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1041,14 +1041,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>42736</v>
+        <v>43040</v>
       </c>
       <c r="C10" t="n">
-        <v>7.123287671232877</v>
+        <v>7.753424657534246</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1056,25 +1056,25 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>6.247320126918789</v>
+        <v>6.706861312963085</v>
       </c>
       <c r="G10" t="n">
-        <v>8.699310112737702</v>
+        <v>8.41325929665155</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L10" t="n">
         <v>4</v>
@@ -1089,92 +1089,92 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>4.695934959349593</v>
+        <v>4.542528735632184</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>2.100813008130081</v>
+        <v>1.86360153256705</v>
       </c>
       <c r="S10" t="n">
-        <v>0.4943089430894309</v>
+        <v>0.4659003831417624</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>43040</v>
+        <v>43113</v>
       </c>
       <c r="C11" t="n">
-        <v>6.29041095890411</v>
+        <v>7.553424657534246</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Knight-Tardes</t>
+          <t>Padawan-Sin Fijo</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F11" t="n">
-        <v>6.334219478032186</v>
+        <v>6.729501815892393</v>
       </c>
       <c r="G11" t="n">
-        <v>8.749789668517613</v>
+        <v>7.529867070503142</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>6.666666666666664</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>4.542528735632184</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>0.7475409836065573</v>
       </c>
       <c r="R11" t="n">
-        <v>1.98007662835249</v>
+        <v>1.99344262295082</v>
       </c>
       <c r="S11" t="n">
-        <v>0.4659003831417624</v>
+        <v>0.8306010928961745</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>43113</v>
+        <v>43770</v>
       </c>
       <c r="C12" t="n">
-        <v>6.090410958904109</v>
+        <v>5.753424657534246</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F12" t="n">
-        <v>6.35508675642455</v>
+        <v>6.933266342256174</v>
       </c>
       <c r="G12" t="n">
-        <v>7.954736664984045</v>
+        <v>7.866397442369204</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>17</v>
       </c>
       <c r="L12" t="n">
-        <v>6.999999999999997</v>
+        <v>6.666666666666664</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1218,26 +1218,26 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7475409836065573</v>
+        <v>0.7384615384615385</v>
       </c>
       <c r="R12" t="n">
-        <v>2.118032786885246</v>
+        <v>2.092307692307692</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8721311475409832</v>
+        <v>0.8205128205128203</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>43770</v>
+        <v>44440</v>
       </c>
       <c r="C13" t="n">
-        <v>4.29041095890411</v>
+        <v>3.917808219178082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" t="n">
-        <v>6.542892261955807</v>
+        <v>7.141062739004625</v>
       </c>
       <c r="G13" t="n">
         <v>7.954736664984045</v>
@@ -1269,10 +1269,10 @@
         <v>6.999999999999997</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1281,26 +1281,26 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.7384615384615385</v>
+        <v>0.7414634146341462</v>
       </c>
       <c r="R13" t="n">
-        <v>2.092307692307692</v>
+        <v>2.100813008130081</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8615384615384613</v>
+        <v>0.8650406504065037</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44440</v>
+        <v>44713</v>
       </c>
       <c r="C14" t="n">
-        <v>2.454794520547945</v>
+        <v>3.16986301369863</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1308,13 +1308,13 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" t="n">
-        <v>6.734413858159677</v>
+        <v>7.225732017082725</v>
       </c>
       <c r="G14" t="n">
-        <v>7.954736664984045</v>
+        <v>8.556284704694631</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1326,17 +1326,17 @@
         <v>6</v>
       </c>
       <c r="K14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L14" t="n">
-        <v>6.999999999999997</v>
+        <v>7.999999999999996</v>
       </c>
       <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="n">
         <v>4</v>
       </c>
-      <c r="N14" t="n">
-        <v>2</v>
-      </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
@@ -1344,26 +1344,26 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.7414634146341462</v>
+        <v>0.7384615384615385</v>
       </c>
       <c r="R14" t="n">
-        <v>2.100813008130081</v>
+        <v>2.215384615384616</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8650406504065037</v>
+        <v>0.9846153846153842</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
         <v>44713</v>
       </c>
       <c r="C15" t="n">
-        <v>1.706849315068493</v>
+        <v>3.16986301369863</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1371,13 +1371,13 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>6.812451762284538</v>
+        <v>7.225732017082725</v>
       </c>
       <c r="G15" t="n">
-        <v>8.379606259464948</v>
+        <v>8.556284704694631</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1392,13 +1392,13 @@
         <v>18</v>
       </c>
       <c r="L15" t="n">
-        <v>7.33333333333333</v>
+        <v>7.999999999999996</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1407,26 +1407,26 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7384615384615385</v>
+        <v>0.6988505747126437</v>
       </c>
       <c r="R15" t="n">
-        <v>2.215384615384616</v>
+        <v>2.096551724137931</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9025641025641022</v>
+        <v>0.9318007662835244</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44713</v>
+        <v>45383</v>
       </c>
       <c r="C16" t="n">
-        <v>1.706849315068493</v>
+        <v>1.334246575342466</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1434,13 +1434,13 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" t="n">
-        <v>6.812451762284538</v>
+        <v>7.433528413831178</v>
       </c>
       <c r="G16" t="n">
-        <v>8.442705704189834</v>
+        <v>9.284031633854989</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1449,19 +1449,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L16" t="n">
-        <v>7.33333333333333</v>
+        <v>8.999999999999998</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1470,76 +1470,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.8153256704980842</v>
+        <v>0.9353846153846154</v>
       </c>
       <c r="R16" t="n">
-        <v>2.096551724137931</v>
+        <v>2.221538461538461</v>
       </c>
       <c r="S16" t="n">
-        <v>0.8541507024265641</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Recluta1</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>44713</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.706849315068493</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Padawan-Sin Fijo</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>15</v>
-      </c>
-      <c r="F17" t="n">
-        <v>6.812451762284538</v>
-      </c>
-      <c r="G17" t="n">
-        <v>8.177688036345311</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>7</v>
-      </c>
-      <c r="K17" t="n">
-        <v>18</v>
-      </c>
-      <c r="L17" t="n">
-        <v>6.333333333333331</v>
-      </c>
-      <c r="M17" t="n">
-        <v>2</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.8184615384615385</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.104615384615385</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.7405128205128203</v>
+        <v>1.052307692307692</v>
       </c>
     </row>
   </sheetData>

--- a/AAA - Revision Asignacion de Salida (version Año Abril-Diciembre 2024).xlsx
+++ b/AAA - Revision Asignacion de Salida (version Año Abril-Diciembre 2024).xlsx
@@ -544,7 +544,7 @@
         <v>41456</v>
       </c>
       <c r="C2" t="n">
-        <v>12.09315068493151</v>
+        <v>10.92328767123288</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -555,13 +555,13 @@
         <v>32</v>
       </c>
       <c r="F2" t="n">
-        <v>6.215593413784655</v>
+        <v>6.224379325864565</v>
       </c>
       <c r="G2" t="n">
-        <v>2.347299343765784</v>
+        <v>2.405986549209049</v>
       </c>
       <c r="H2" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -573,16 +573,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.666666666666667</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>4.879012345679012</v>
+        <v>5.806741573033707</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3336076817558298</v>
+        <v>0.4554307116104868</v>
       </c>
     </row>
     <row r="3">
@@ -607,7 +607,7 @@
         <v>41456</v>
       </c>
       <c r="C3" t="n">
-        <v>12.09315068493151</v>
+        <v>10.92328767123288</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -618,13 +618,13 @@
         <v>31</v>
       </c>
       <c r="F3" t="n">
-        <v>6.215593413784655</v>
+        <v>6.224379325864565</v>
       </c>
       <c r="G3" t="n">
-        <v>2.179034157832754</v>
+        <v>2.311262669318929</v>
       </c>
       <c r="H3" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.666666666666667</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>4.360655737704918</v>
+        <v>5.404444444444444</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3322404371584699</v>
+        <v>0.4503703703703703</v>
       </c>
     </row>
     <row r="4">
@@ -670,7 +670,7 @@
         <v>41640</v>
       </c>
       <c r="C4" t="n">
-        <v>11.58904109589041</v>
+        <v>10.41917808219178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -681,13 +681,13 @@
         <v>26</v>
       </c>
       <c r="F4" t="n">
-        <v>6.272659886921544</v>
+        <v>6.280334269970441</v>
       </c>
       <c r="G4" t="n">
-        <v>2.305233047282527</v>
+        <v>2.311262669318929</v>
       </c>
       <c r="H4" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2.666666666666667</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>4.639357429718875</v>
+        <v>5.12</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3255689424364123</v>
+        <v>0.4266666666666666</v>
       </c>
     </row>
     <row r="5">
@@ -733,7 +733,7 @@
         <v>41640</v>
       </c>
       <c r="C5" t="n">
-        <v>11.58904109589041</v>
+        <v>10.41917808219178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -744,13 +744,13 @@
         <v>28</v>
       </c>
       <c r="F5" t="n">
-        <v>6.272659886921544</v>
+        <v>6.280334269970441</v>
       </c>
       <c r="G5" t="n">
-        <v>2.305233047282527</v>
+        <v>2.40598654920905</v>
       </c>
       <c r="H5" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -762,16 +762,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.666666666666667</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>4.676923076923077</v>
+        <v>5.556989247311828</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3282051282051282</v>
+        <v>0.43584229390681</v>
       </c>
     </row>
     <row r="6">
@@ -796,7 +796,7 @@
         <v>41852</v>
       </c>
       <c r="C6" t="n">
-        <v>11.00821917808219</v>
+        <v>9.838356164383562</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -807,13 +807,13 @@
         <v>29</v>
       </c>
       <c r="F6" t="n">
-        <v>6.338410388579262</v>
+        <v>6.344804096875039</v>
       </c>
       <c r="G6" t="n">
-        <v>7.916876998149114</v>
+        <v>7.255849199583196</v>
       </c>
       <c r="H6" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -822,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>4.32520325203252</v>
+        <v>5.28695652173913</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -843,10 +843,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.977235772357723</v>
+        <v>1.982608695652174</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4943089430894309</v>
+        <v>0.6608695652173912</v>
       </c>
     </row>
     <row r="7">
@@ -859,7 +859,7 @@
         <v>41852</v>
       </c>
       <c r="C7" t="n">
-        <v>11.00821917808219</v>
+        <v>9.838356164383562</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -870,46 +870,46 @@
         <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>6.338410388579262</v>
+        <v>6.344804096875039</v>
       </c>
       <c r="G7" t="n">
-        <v>8.211341073531914</v>
+        <v>8.316756654352544</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>4.273092369477911</v>
+        <v>5.12</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1.953413654618474</v>
+        <v>2.24</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4883534136546185</v>
+        <v>0.6399999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -922,7 +922,7 @@
         <v>41852</v>
       </c>
       <c r="C8" t="n">
-        <v>11.00821917808219</v>
+        <v>9.838356164383562</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -933,46 +933,46 @@
         <v>29</v>
       </c>
       <c r="F8" t="n">
-        <v>6.338410388579262</v>
+        <v>6.344804096875039</v>
       </c>
       <c r="G8" t="n">
-        <v>8.211341073531914</v>
+        <v>8.316756654352544</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>4.32520325203252</v>
+        <v>5.28695652173913</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1.977235772357723</v>
+        <v>2.31304347826087</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4943089430894309</v>
+        <v>0.6608695652173912</v>
       </c>
     </row>
     <row r="9">
@@ -985,7 +985,7 @@
         <v>42736</v>
       </c>
       <c r="C9" t="n">
-        <v>8.586301369863014</v>
+        <v>7.416438356164384</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -996,46 +996,46 @@
         <v>29</v>
       </c>
       <c r="F9" t="n">
-        <v>6.61257757473692</v>
+        <v>6.613631110948924</v>
       </c>
       <c r="G9" t="n">
-        <v>8.362779740871641</v>
+        <v>8.316756654352542</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>4.695934959349593</v>
+        <v>5.28695652173913</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1.977235772357723</v>
+        <v>2.31304347826087</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4943089430894309</v>
+        <v>0.6608695652173912</v>
       </c>
     </row>
     <row r="10">
@@ -1048,7 +1048,7 @@
         <v>43040</v>
       </c>
       <c r="C10" t="n">
-        <v>7.753424657534246</v>
+        <v>6.583561643835616</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1059,46 +1059,46 @@
         <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>6.706861312963085</v>
+        <v>6.706078409906459</v>
       </c>
       <c r="G10" t="n">
-        <v>8.41325929665155</v>
+        <v>8.430425310220684</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>4.542528735632184</v>
+        <v>4.829906542056075</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.86360153256705</v>
+        <v>1.988785046728972</v>
       </c>
       <c r="S10" t="n">
-        <v>0.4659003831417624</v>
+        <v>0.5682242990654205</v>
       </c>
     </row>
     <row r="11">
@@ -1111,7 +1111,7 @@
         <v>43113</v>
       </c>
       <c r="C11" t="n">
-        <v>7.553424657534246</v>
+        <v>6.383561643835616</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1122,10 +1122,10 @@
         <v>31</v>
       </c>
       <c r="F11" t="n">
-        <v>6.729501815892393</v>
+        <v>6.728277925774551</v>
       </c>
       <c r="G11" t="n">
-        <v>7.529867070503142</v>
+        <v>8.477787250165743</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L11" t="n">
-        <v>6.666666666666664</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.7475409836065573</v>
+        <v>1.013333333333333</v>
       </c>
       <c r="R11" t="n">
-        <v>1.99344262295082</v>
+        <v>2.702222222222222</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8306010928961745</v>
+        <v>1.125925925925926</v>
       </c>
     </row>
     <row r="12">
@@ -1174,7 +1174,7 @@
         <v>43770</v>
       </c>
       <c r="C12" t="n">
-        <v>5.753424657534246</v>
+        <v>4.583561643835616</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1185,10 +1185,10 @@
         <v>28</v>
       </c>
       <c r="F12" t="n">
-        <v>6.933266342256174</v>
+        <v>6.928073568587381</v>
       </c>
       <c r="G12" t="n">
-        <v>7.866397442369204</v>
+        <v>8.477787250165743</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="L12" t="n">
-        <v>6.666666666666664</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7384615384615385</v>
+        <v>0.9806451612903224</v>
       </c>
       <c r="R12" t="n">
-        <v>2.092307692307692</v>
+        <v>2.61505376344086</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8205128205128203</v>
+        <v>1.089605734767025</v>
       </c>
     </row>
     <row r="13">
@@ -1237,7 +1237,7 @@
         <v>44440</v>
       </c>
       <c r="C13" t="n">
-        <v>3.917808219178082</v>
+        <v>2.747945205479452</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1248,10 +1248,10 @@
         <v>29</v>
       </c>
       <c r="F13" t="n">
-        <v>7.141062739004625</v>
+        <v>7.131822549842476</v>
       </c>
       <c r="G13" t="n">
-        <v>7.954736664984045</v>
+        <v>8.477787250165743</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1260,19 +1260,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="L13" t="n">
-        <v>6.999999999999997</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1281,13 +1281,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.7414634146341462</v>
+        <v>0.9913043478260869</v>
       </c>
       <c r="R13" t="n">
-        <v>2.100813008130081</v>
+        <v>2.643478260869565</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8650406504065037</v>
+        <v>1.101449275362319</v>
       </c>
     </row>
     <row r="14">
@@ -1300,7 +1300,7 @@
         <v>44713</v>
       </c>
       <c r="C14" t="n">
-        <v>3.16986301369863</v>
+        <v>2</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1311,10 +1311,10 @@
         <v>28</v>
       </c>
       <c r="F14" t="n">
-        <v>7.225732017082725</v>
+        <v>7.214842657129998</v>
       </c>
       <c r="G14" t="n">
-        <v>8.556284704694631</v>
+        <v>8.477787250165743</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="L14" t="n">
-        <v>7.999999999999996</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.7384615384615385</v>
+        <v>0.9806451612903224</v>
       </c>
       <c r="R14" t="n">
-        <v>2.215384615384616</v>
+        <v>2.61505376344086</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9846153846153842</v>
+        <v>1.089605734767025</v>
       </c>
     </row>
     <row r="15">
@@ -1363,7 +1363,7 @@
         <v>44713</v>
       </c>
       <c r="C15" t="n">
-        <v>3.16986301369863</v>
+        <v>2</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1374,10 +1374,10 @@
         <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>7.225732017082725</v>
+        <v>7.214842657129998</v>
       </c>
       <c r="G15" t="n">
-        <v>8.556284704694631</v>
+        <v>8.079946954627239</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1386,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="L15" t="n">
-        <v>7.999999999999996</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1407,13 +1407,13 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6988505747126437</v>
+        <v>0.8523364485981308</v>
       </c>
       <c r="R15" t="n">
-        <v>2.096551724137931</v>
+        <v>2.272897196261682</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9318007662835244</v>
+        <v>0.757632398753894</v>
       </c>
     </row>
     <row r="16">
@@ -1426,7 +1426,7 @@
         <v>45383</v>
       </c>
       <c r="C16" t="n">
-        <v>1.334246575342466</v>
+        <v>0.1643835616438356</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,10 +1437,10 @@
         <v>15</v>
       </c>
       <c r="F16" t="n">
-        <v>7.433528413831178</v>
+        <v>7.418591638385093</v>
       </c>
       <c r="G16" t="n">
-        <v>9.284031633854989</v>
+        <v>7.93786113479206</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1449,19 +1449,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
         <v>8</v>
       </c>
-      <c r="K16" t="n">
-        <v>19</v>
-      </c>
       <c r="L16" t="n">
-        <v>8.999999999999998</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1470,13 +1470,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.9353846153846154</v>
+        <v>0.5735849056603773</v>
       </c>
       <c r="R16" t="n">
-        <v>2.221538461538461</v>
+        <v>2.294339622641509</v>
       </c>
       <c r="S16" t="n">
-        <v>1.052307692307692</v>
+        <v>0.7647798742138364</v>
       </c>
     </row>
   </sheetData>
